--- a/src/test/java/CinchP (16).xlsx
+++ b/src/test/java/CinchP (16).xlsx
@@ -55,10 +55,10 @@
     <t xml:space="preserve">TA</t>
   </si>
   <si>
-    <t xml:space="preserve">Brick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jocky</t>
+    <t xml:space="preserve">Khurana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julie</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">457-548-4888</t>
   </si>
   <si>
-    <t xml:space="preserve">sam3@mailinator.com</t>
+    <t xml:space="preserve">julk@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">03/17/1990</t>
@@ -443,7 +443,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,7 +530,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="sam3@mailinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="julk@mailinator.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
